--- a/bi-homework-bids2008/bi-homework-bids2008/TestFile.xlsx
+++ b/bi-homework-bids2008/bi-homework-bids2008/TestFile.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t>Account No</t>
   </si>
@@ -65,10 +65,16 @@
     <t>A000129</t>
   </si>
   <si>
+    <t>Null Test</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Aenean eu mattis arcu. Vestibulum suscipit purus in lorem pharetra volutpat. In efficitur mauris id dui luctus vestibulum. Nullam blandit id purus et feugiat. Integer rutrum nibh in diam commodo egestas. Fusce quam mi, faucibus ac nulla sed, placerat finibus lectus. Nullam aliquet sem ligula, in ornare mi imperdiet eu. Nam ac convallis nibh. Pellentesque tempus fermentum velit at convallis. Cras augue massa, maximus nec tincidunt in, faucibus condimentum lorem.</t>
+  </si>
+  <si>
+    <t>FailTest</t>
+  </si>
+  <si>
     <t>Fail Test</t>
-  </si>
-  <si>
-    <t>Test</t>
   </si>
   <si>
     <t>Transaction ID</t>
@@ -305,7 +311,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -361,9 +367,6 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="59" fontId="0" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1479,7 +1482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1611,17 +1614,30 @@
       <c r="E9" s="6"/>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="s" s="13">
+      <c r="A10" t="s" s="11">
         <v>16</v>
       </c>
-      <c r="B10" t="s" s="13">
+      <c r="B10" t="s" s="11">
         <v>17</v>
       </c>
-      <c r="C10" t="s" s="13">
-        <v>18</v>
+      <c r="C10" t="s" s="11">
+        <v>17</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="s" s="13">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s" s="13">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s" s="13">
+        <v>20</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1634,7 +1650,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1653,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s" s="4">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E1" s="5"/>
     </row>
@@ -1668,7 +1684,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s" s="8">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" s="15">
         <v>42034</v>
@@ -1683,7 +1699,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s" s="11">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" s="17">
         <v>42035</v>
@@ -1698,7 +1714,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s" s="8">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" s="15">
         <v>42035</v>
@@ -1713,7 +1729,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s" s="11">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C5" s="17">
         <v>42037</v>
@@ -1728,7 +1744,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s" s="8">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C6" s="15">
         <v>42035</v>
@@ -1743,7 +1759,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s" s="11">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C7" s="17">
         <v>42034</v>
@@ -1758,7 +1774,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s" s="8">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C8" s="15">
         <v>42040</v>
@@ -1773,7 +1789,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C9" s="17">
         <v>42035</v>
@@ -1784,19 +1800,34 @@
       <c r="E9" s="5"/>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="s" s="13">
+      <c r="A10" t="s" s="11">
         <v>16</v>
       </c>
-      <c r="B10" t="s" s="13">
-        <v>30</v>
-      </c>
-      <c r="C10" s="19">
-        <v>42035</v>
-      </c>
-      <c r="D10" t="s" s="13">
+      <c r="B10" t="s" s="11">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s" s="11">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s" s="11">
+        <v>17</v>
+      </c>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="B11" t="s" s="13">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s" s="13">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s" s="13">
+        <v>20</v>
+      </c>
+      <c r="E11" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
